--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bmp4-Rgmb.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bmp4-Rgmb.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>5.269639666666666</v>
+        <v>4.202518666666666</v>
       </c>
       <c r="H2">
-        <v>15.808919</v>
+        <v>12.607556</v>
       </c>
       <c r="I2">
-        <v>0.09922110188645328</v>
+        <v>0.08075097102331126</v>
       </c>
       <c r="J2">
-        <v>0.09922110188645328</v>
+        <v>0.08075097102331129</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.367553</v>
+        <v>16.57637</v>
       </c>
       <c r="N2">
-        <v>13.102659</v>
+        <v>49.72911</v>
       </c>
       <c r="O2">
-        <v>0.05657159077620311</v>
+        <v>0.1853914334114506</v>
       </c>
       <c r="P2">
-        <v>0.05657159077620311</v>
+        <v>0.1853914334114506</v>
       </c>
       <c r="Q2">
-        <v>23.015430535069</v>
+        <v>69.66250435057333</v>
       </c>
       <c r="R2">
-        <v>207.138874815621</v>
+        <v>626.9625391551599</v>
       </c>
       <c r="S2">
-        <v>0.005613095572284389</v>
+        <v>0.01497053826737819</v>
       </c>
       <c r="T2">
-        <v>0.005613095572284389</v>
+        <v>0.01497053826737819</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>5.269639666666666</v>
+        <v>4.202518666666666</v>
       </c>
       <c r="H3">
-        <v>15.808919</v>
+        <v>12.607556</v>
       </c>
       <c r="I3">
-        <v>0.09922110188645328</v>
+        <v>0.08075097102331126</v>
       </c>
       <c r="J3">
-        <v>0.09922110188645328</v>
+        <v>0.08075097102331129</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>160.353608</v>
       </c>
       <c r="O3">
-        <v>0.6923372340884159</v>
+        <v>0.5978024790674488</v>
       </c>
       <c r="P3">
-        <v>0.692337234088416</v>
+        <v>0.5978024790674489</v>
       </c>
       <c r="Q3">
-        <v>281.6685778033058</v>
+        <v>224.6296769624498</v>
       </c>
       <c r="R3">
-        <v>2535.017200229752</v>
+        <v>2021.667092662048</v>
       </c>
       <c r="S3">
-        <v>0.06869446324327197</v>
+        <v>0.0482731306648392</v>
       </c>
       <c r="T3">
-        <v>0.06869446324327197</v>
+        <v>0.04827313066483922</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>5.269639666666666</v>
+        <v>4.202518666666666</v>
       </c>
       <c r="H4">
-        <v>15.808919</v>
+        <v>12.607556</v>
       </c>
       <c r="I4">
-        <v>0.09922110188645328</v>
+        <v>0.08075097102331126</v>
       </c>
       <c r="J4">
-        <v>0.09922110188645328</v>
+        <v>0.08075097102331129</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>58.155728</v>
       </c>
       <c r="O4">
-        <v>0.251091175135381</v>
+        <v>0.2168060875211005</v>
       </c>
       <c r="P4">
-        <v>0.251091175135381</v>
+        <v>0.2168060875211005</v>
       </c>
       <c r="Q4">
-        <v>102.1532437042258</v>
+        <v>81.46684416452977</v>
       </c>
       <c r="R4">
-        <v>919.3791933380319</v>
+        <v>733.2015974807679</v>
       </c>
       <c r="S4">
-        <v>0.02491354307089693</v>
+        <v>0.01750730209109387</v>
       </c>
       <c r="T4">
-        <v>0.02491354307089693</v>
+        <v>0.01750730209109388</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>117.038589</v>
       </c>
       <c r="I5">
-        <v>0.7345662131494083</v>
+        <v>0.7496282157262072</v>
       </c>
       <c r="J5">
-        <v>0.7345662131494083</v>
+        <v>0.7496282157262073</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.367553</v>
+        <v>16.57637</v>
       </c>
       <c r="N5">
-        <v>13.102659</v>
+        <v>49.72911</v>
       </c>
       <c r="O5">
-        <v>0.05657159077620311</v>
+        <v>0.1853914334114506</v>
       </c>
       <c r="P5">
-        <v>0.05657159077620311</v>
+        <v>0.1853914334114506</v>
       </c>
       <c r="Q5">
-        <v>170.390746834239</v>
+        <v>646.69165184731</v>
       </c>
       <c r="R5">
-        <v>1533.516721508151</v>
+        <v>5820.22486662579</v>
       </c>
       <c r="S5">
-        <v>0.04155557920831351</v>
+        <v>0.1389746494391497</v>
       </c>
       <c r="T5">
-        <v>0.04155557920831351</v>
+        <v>0.1389746494391497</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>117.038589</v>
       </c>
       <c r="I6">
-        <v>0.7345662131494083</v>
+        <v>0.7496282157262072</v>
       </c>
       <c r="J6">
-        <v>0.7345662131494083</v>
+        <v>0.7496282157262073</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>160.353608</v>
       </c>
       <c r="O6">
-        <v>0.6923372340884159</v>
+        <v>0.5978024790674488</v>
       </c>
       <c r="P6">
-        <v>0.692337234088416</v>
+        <v>0.5978024790674489</v>
       </c>
       <c r="Q6">
         <v>2085.284446819901</v>
@@ -818,10 +818,10 @@
         <v>18767.56002137911</v>
       </c>
       <c r="S6">
-        <v>0.5085675402666631</v>
+        <v>0.448129605740035</v>
       </c>
       <c r="T6">
-        <v>0.5085675402666632</v>
+        <v>0.4481296057400351</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>117.038589</v>
       </c>
       <c r="I7">
-        <v>0.7345662131494083</v>
+        <v>0.7496282157262072</v>
       </c>
       <c r="J7">
-        <v>0.7345662131494083</v>
+        <v>0.7496282157262073</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>58.155728</v>
       </c>
       <c r="O7">
-        <v>0.251091175135381</v>
+        <v>0.2168060875211005</v>
       </c>
       <c r="P7">
-        <v>0.251091175135381</v>
+        <v>0.2168060875211005</v>
       </c>
       <c r="Q7">
         <v>756.2738163764213</v>
@@ -880,10 +880,10 @@
         <v>6806.464347387791</v>
       </c>
       <c r="S7">
-        <v>0.1844430936744317</v>
+        <v>0.1625239605470225</v>
       </c>
       <c r="T7">
-        <v>0.1844430936744317</v>
+        <v>0.1625239605470225</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.827567333333334</v>
+        <v>8.827567333333333</v>
       </c>
       <c r="H8">
         <v>26.482702</v>
       </c>
       <c r="I8">
-        <v>0.1662126849641383</v>
+        <v>0.1696208132504815</v>
       </c>
       <c r="J8">
-        <v>0.1662126849641383</v>
+        <v>0.1696208132504815</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.367553</v>
+        <v>16.57637</v>
       </c>
       <c r="N8">
-        <v>13.102659</v>
+        <v>49.72911</v>
       </c>
       <c r="O8">
-        <v>0.05657159077620311</v>
+        <v>0.1853914334114506</v>
       </c>
       <c r="P8">
-        <v>0.05657159077620311</v>
+        <v>0.1853914334114506</v>
       </c>
       <c r="Q8">
-        <v>38.55486818940201</v>
+        <v>146.3290223172467</v>
       </c>
       <c r="R8">
-        <v>346.993813704618</v>
+        <v>1316.96120085522</v>
       </c>
       <c r="S8">
-        <v>0.0094029159956052</v>
+        <v>0.03144624570492274</v>
       </c>
       <c r="T8">
-        <v>0.009402915995605202</v>
+        <v>0.03144624570492275</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.827567333333334</v>
+        <v>8.827567333333333</v>
       </c>
       <c r="H9">
         <v>26.482702</v>
       </c>
       <c r="I9">
-        <v>0.1662126849641383</v>
+        <v>0.1696208132504815</v>
       </c>
       <c r="J9">
-        <v>0.1662126849641383</v>
+        <v>0.1696208132504815</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>160.353608</v>
       </c>
       <c r="O9">
-        <v>0.6923372340884159</v>
+        <v>0.5978024790674488</v>
       </c>
       <c r="P9">
-        <v>0.692337234088416</v>
+        <v>0.5978024790674489</v>
       </c>
       <c r="Q9">
-        <v>471.8440905876463</v>
+        <v>471.8440905876462</v>
       </c>
       <c r="R9">
-        <v>4246.596815288817</v>
+        <v>4246.596815288816</v>
       </c>
       <c r="S9">
-        <v>0.1150752305784807</v>
+        <v>0.1013997426625746</v>
       </c>
       <c r="T9">
-        <v>0.1150752305784808</v>
+        <v>0.1013997426625746</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.827567333333334</v>
+        <v>8.827567333333333</v>
       </c>
       <c r="H10">
         <v>26.482702</v>
       </c>
       <c r="I10">
-        <v>0.1662126849641383</v>
+        <v>0.1696208132504815</v>
       </c>
       <c r="J10">
-        <v>0.1662126849641383</v>
+        <v>0.1696208132504815</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>58.155728</v>
       </c>
       <c r="O10">
-        <v>0.251091175135381</v>
+        <v>0.2168060875211005</v>
       </c>
       <c r="P10">
-        <v>0.251091175135381</v>
+        <v>0.2168060875211005</v>
       </c>
       <c r="Q10">
         <v>171.1245349130062</v>
@@ -1066,10 +1066,10 @@
         <v>1540.120814217056</v>
       </c>
       <c r="S10">
-        <v>0.04173453839005237</v>
+        <v>0.03677482488298413</v>
       </c>
       <c r="T10">
-        <v>0.04173453839005237</v>
+        <v>0.03677482488298414</v>
       </c>
     </row>
   </sheetData>
